--- a/qna-maker/knowledge-bases/SampleV2Synonyms.xlsx
+++ b/qna-maker/knowledge-bases/SampleV2Synonyms.xlsx
@@ -2,13 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Synonyms" sheetId="1" r:id="Rc84f9940feff42ba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Synonyms" sheetId="1" r:id="R3a868734ed3a41ca"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetData/>
+  <x:sheetData>
+    <x:row r="1">
+      <x:c t="str">
+        <x:v>"sdk","software development kit"</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2">
+      <x:c t="str">
+        <x:v>"channel","teams","skype","whatsapp"</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
 </x:worksheet>
 </file>